--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/17.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/17.xlsx
@@ -479,13 +479,13 @@
         <v>-10.65024163425561</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.39590650840315</v>
+        <v>-10.42460483623221</v>
       </c>
       <c r="F2" t="n">
-        <v>3.022669612441572</v>
+        <v>2.971897662021358</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.26515968774326</v>
+        <v>-16.17660335132183</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.938420426348253</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.89889969127942</v>
+        <v>-10.92949640302054</v>
       </c>
       <c r="F3" t="n">
-        <v>2.873129329383377</v>
+        <v>2.82680876192935</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.80789791869314</v>
+        <v>-15.71702424466872</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.105734540912078</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.14296640085488</v>
+        <v>-11.17715040357463</v>
       </c>
       <c r="F4" t="n">
-        <v>2.997034883477473</v>
+        <v>2.947048471227762</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.26230238236989</v>
+        <v>-15.16964815515899</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.274176935600968</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.66778445256831</v>
+        <v>-11.70370973156601</v>
       </c>
       <c r="F5" t="n">
-        <v>3.041574897745025</v>
+        <v>2.983759288395962</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.61367042268225</v>
+        <v>-14.52122567231683</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.462488957341034</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.42711183278274</v>
+        <v>-12.45670043720504</v>
       </c>
       <c r="F6" t="n">
-        <v>3.06490538140898</v>
+        <v>3.010677063038551</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.10999644005821</v>
+        <v>-14.02289334925221</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.726606790789703</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.69215241151064</v>
+        <v>-12.72064126249424</v>
       </c>
       <c r="F7" t="n">
-        <v>3.310857382593646</v>
+        <v>3.246207591161203</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.43714372011338</v>
+        <v>-13.36080250224328</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.083063273245027</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.48493062548568</v>
+        <v>-13.52024056624982</v>
       </c>
       <c r="F8" t="n">
-        <v>3.460188188806374</v>
+        <v>3.388390000022348</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.13854756920214</v>
+        <v>-13.07034976369959</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.551582125411825</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.1217271434044</v>
+        <v>-14.15427460826893</v>
       </c>
       <c r="F9" t="n">
-        <v>3.619835729658381</v>
+        <v>3.555212122831622</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.52559213475821</v>
+        <v>-12.46574721846868</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.131198681657615</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.11167543817583</v>
+        <v>-15.1360140291586</v>
       </c>
       <c r="F10" t="n">
-        <v>3.793334926916935</v>
+        <v>3.725831013464996</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.1883213212525</v>
+        <v>-12.1276384975811</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.813078321247672</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.98819202112655</v>
+        <v>-16.01035728983759</v>
       </c>
       <c r="F11" t="n">
-        <v>3.963822894521893</v>
+        <v>3.89872796479283</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.67275952764817</v>
+        <v>-11.6254832220867</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.585632289548245</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.78011923541688</v>
+        <v>-16.79253073851083</v>
       </c>
       <c r="F12" t="n">
-        <v>3.991447653517934</v>
+        <v>3.930620814515275</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.43535680021915</v>
+        <v>-11.38699383352182</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.422759032415504</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.38442065768243</v>
+        <v>-17.40806535661458</v>
       </c>
       <c r="F13" t="n">
-        <v>3.860053302198371</v>
+        <v>3.800404770451467</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.84793135631659</v>
+        <v>-10.8027236346041</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.309748029000513</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.31635695856217</v>
+        <v>-18.34707150102886</v>
       </c>
       <c r="F14" t="n">
-        <v>4.105612534297785</v>
+        <v>4.055259537568507</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.28692617954862</v>
+        <v>-10.24459876446132</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.218747351578129</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.14644823563613</v>
+        <v>-19.17677000901757</v>
       </c>
       <c r="F15" t="n">
-        <v>4.14698421127764</v>
+        <v>4.096133707040376</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.79106830172109</v>
+        <v>-9.751097501145301</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.131918643743588</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.1744689470713</v>
+        <v>-20.2002607836695</v>
       </c>
       <c r="F16" t="n">
-        <v>4.362116931572883</v>
+        <v>4.321504608157849</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.264574435243919</v>
+        <v>-9.223242035172589</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.029952617408513</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.15512170682511</v>
+        <v>-21.1821965891018</v>
       </c>
       <c r="F17" t="n">
-        <v>4.54072212693971</v>
+        <v>4.496443958728992</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.912129642744652</v>
+        <v>-8.871543503935301</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.898586511650246</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.93043478880929</v>
+        <v>-21.96176466950953</v>
       </c>
       <c r="F18" t="n">
-        <v>4.826736574820058</v>
+        <v>4.773555640676967</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.39223429689971</v>
+        <v>-8.35142558894205</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.730786568428789</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.612478305349</v>
+        <v>-22.65007939911044</v>
       </c>
       <c r="F19" t="n">
-        <v>5.010709614351992</v>
+        <v>4.96093267894775</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.858068340957287</v>
+        <v>-7.821802662085705</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.521241988878474</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.35166972379286</v>
+        <v>-23.3829341429789</v>
       </c>
       <c r="F20" t="n">
-        <v>5.086068909508968</v>
+        <v>5.041607449058466</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.166205597286273</v>
+        <v>-7.12772731923444</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.277428744448003</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02846322689305</v>
+        <v>-24.07229625680715</v>
       </c>
       <c r="F21" t="n">
-        <v>5.113248530208391</v>
+        <v>5.073893067866162</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.994604783939769</v>
+        <v>-6.962777395731533</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.004228159436821</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.7420199163728</v>
+        <v>-24.78597077701247</v>
       </c>
       <c r="F22" t="n">
-        <v>5.427149583141615</v>
+        <v>5.387506090136869</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.84617734662312</v>
+        <v>-6.807136099549093</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.715413329140182</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.28908179061433</v>
+        <v>-25.33301955895116</v>
       </c>
       <c r="F23" t="n">
-        <v>5.39517817960212</v>
+        <v>5.365615759785502</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.489713217151445</v>
+        <v>-6.460595935631447</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.419787367372188</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.71933413890197</v>
+        <v>-25.76645333682934</v>
       </c>
       <c r="F24" t="n">
-        <v>5.288475911442053</v>
+        <v>5.262762628660902</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.174188718665847</v>
+        <v>-6.143225422445164</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.127412875385517</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.08201711222346</v>
+        <v>-26.12316622005501</v>
       </c>
       <c r="F25" t="n">
-        <v>5.396330302252192</v>
+        <v>5.366322744138956</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.865982817468773</v>
+        <v>-5.842835626044602</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.844544546787312</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.41727171109154</v>
+        <v>-26.46511098567521</v>
       </c>
       <c r="F26" t="n">
-        <v>5.375801571396365</v>
+        <v>5.351135672842553</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.606401729025871</v>
+        <v>-5.587719012870727</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.573817490621416</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.16546745053662</v>
+        <v>-26.21136906429972</v>
       </c>
       <c r="F27" t="n">
-        <v>5.482870424036001</v>
+        <v>5.461032462896002</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.146979730006861</v>
+        <v>-5.135681072654451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.320276503828568</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.3577671946759</v>
+        <v>-26.39841879499946</v>
       </c>
       <c r="F28" t="n">
-        <v>5.28936618803529</v>
+        <v>5.267240196232772</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.959497953313344</v>
+        <v>-4.941103267820719</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.083763385249384</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.4780985500942</v>
+        <v>-26.51843593514956</v>
       </c>
       <c r="F29" t="n">
-        <v>5.335896232334784</v>
+        <v>5.312775225516296</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.91092550977054</v>
+        <v>-4.899299544847088</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.8705100927689763</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.55483253704956</v>
+        <v>-26.59420109169463</v>
       </c>
       <c r="F30" t="n">
-        <v>5.326443589683058</v>
+        <v>5.301646768100829</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.896707268884426</v>
+        <v>-4.887778318346369</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.6829869535238604</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.18475241262249</v>
+        <v>-26.22961973446108</v>
       </c>
       <c r="F31" t="n">
-        <v>5.218301168210401</v>
+        <v>5.18955047116997</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.111970912208085</v>
+        <v>-5.103775130629165</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.527111750245994</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.8746612198162</v>
+        <v>-25.92378354007836</v>
       </c>
       <c r="F32" t="n">
-        <v>5.26373145907119</v>
+        <v>5.233566793323853</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.190694929195384</v>
+        <v>-5.186099530897939</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.4086908684697668</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.73317270300567</v>
+        <v>-25.7749109644651</v>
       </c>
       <c r="F33" t="n">
-        <v>5.166403279745799</v>
+        <v>5.135662552673426</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.262440748768044</v>
+        <v>-5.249479368954734</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.3322725998208078</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.24526185300307</v>
+        <v>-25.2811347627894</v>
       </c>
       <c r="F34" t="n">
-        <v>5.217410891617163</v>
+        <v>5.183423273440043</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.498599707427099</v>
+        <v>-5.482731836382927</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.3024073504527749</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.9047703329983</v>
+        <v>-24.93593001376161</v>
       </c>
       <c r="F35" t="n">
-        <v>5.051740891457961</v>
+        <v>5.017124842744438</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.619768970227273</v>
+        <v>-5.602434761264828</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.3193293311463311</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.38799095522969</v>
+        <v>-24.42167745044145</v>
       </c>
       <c r="F36" t="n">
-        <v>5.252838663106874</v>
+        <v>5.213980708272631</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.641083239253603</v>
+        <v>-5.623591922657057</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.3838805038582267</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.86749336345402</v>
+        <v>-23.88999903203895</v>
       </c>
       <c r="F37" t="n">
-        <v>5.213457016158962</v>
+        <v>5.174022999999683</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.702590878004032</v>
+        <v>-5.685636345823997</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.4955360309171399</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.25436772907315</v>
+        <v>-23.28139024213847</v>
       </c>
       <c r="F38" t="n">
-        <v>5.015056258895445</v>
+        <v>4.980361656364871</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.742797340030973</v>
+        <v>-5.730542944571117</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.6502818438548108</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.1863270312047</v>
+        <v>-23.20520613190247</v>
       </c>
       <c r="F39" t="n">
-        <v>5.161978081385295</v>
+        <v>5.128173755447959</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.74762839977957</v>
+        <v>-5.737233111323239</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.8459146203081062</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.46580523661315</v>
+        <v>-22.48607212141214</v>
       </c>
       <c r="F40" t="n">
-        <v>5.335005955741547</v>
+        <v>5.299551999646153</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.793084875246043</v>
+        <v>-5.787023139030324</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.075704567615225</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.94626338294493</v>
+        <v>-21.96287751525108</v>
       </c>
       <c r="F41" t="n">
-        <v>5.299997137942771</v>
+        <v>5.26289355168932</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.87581513690291</v>
+        <v>-5.86026148112694</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.336520476512284</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.12236476511511</v>
+        <v>-21.13359796095331</v>
       </c>
       <c r="F42" t="n">
-        <v>5.448359113745211</v>
+        <v>5.407746790330177</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.115535201934915</v>
+        <v>-6.093317564012505</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.623524102816675</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.628457640411</v>
+        <v>-20.64408985000401</v>
       </c>
       <c r="F43" t="n">
-        <v>5.427018660113197</v>
+        <v>5.38933901253471</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.204392661321709</v>
+        <v>-6.18521243765858</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.930671072876696</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.96770220829192</v>
+        <v>-19.98537681712825</v>
       </c>
       <c r="F44" t="n">
-        <v>5.309345042171763</v>
+        <v>5.260903521657378</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.232829143093938</v>
+        <v>-6.209969982332284</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.254195085261417</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.44835673916633</v>
+        <v>-19.46173707267058</v>
       </c>
       <c r="F45" t="n">
-        <v>5.224035596855077</v>
+        <v>5.177453183344215</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.232737496974046</v>
+        <v>-6.194730541824515</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.584447573158618</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.77364491221798</v>
+        <v>-18.78629207676309</v>
       </c>
       <c r="F46" t="n">
-        <v>5.453674588698952</v>
+        <v>5.409841558784853</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.458056028880152</v>
+        <v>-6.423099580292743</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.918156995278958</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.42982794729141</v>
+        <v>-18.43921512842893</v>
       </c>
       <c r="F47" t="n">
-        <v>5.489495129273915</v>
+        <v>5.443829176961974</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.71403673404158</v>
+        <v>-6.674052841162948</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.244881498400408</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.79149962994022</v>
+        <v>-17.79472033643928</v>
       </c>
       <c r="F48" t="n">
-        <v>5.401933807868451</v>
+        <v>5.353989794862049</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.879510349658156</v>
+        <v>-6.835048889207654</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.560865086714307</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.31170600769948</v>
+        <v>-17.31280576113818</v>
       </c>
       <c r="F49" t="n">
-        <v>5.42817078276327</v>
+        <v>5.375696832973632</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.201345338113466</v>
+        <v>-7.152419402393935</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.858728752373929</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.68404791716429</v>
+        <v>-16.68019878012882</v>
       </c>
       <c r="F50" t="n">
-        <v>5.282950959642844</v>
+        <v>5.238280022346875</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.417564719544572</v>
+        <v>-7.365784661805545</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.132999533859373</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.89328591782688</v>
+        <v>-15.89496173259062</v>
       </c>
       <c r="F51" t="n">
-        <v>5.211283693887236</v>
+        <v>5.162815988767166</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.489886600442266</v>
+        <v>-7.440607172546009</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.379969623363207</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.40969552776204</v>
+        <v>-15.40873978965459</v>
       </c>
       <c r="F52" t="n">
-        <v>5.12105154270206</v>
+        <v>5.072583837581989</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.739805569387975</v>
+        <v>-7.68454295909305</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.594493662269985</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.8276117434189</v>
+        <v>-14.82627632852904</v>
       </c>
       <c r="F53" t="n">
-        <v>5.055878059155948</v>
+        <v>5.005865462300553</v>
       </c>
       <c r="G53" t="n">
-        <v>-8.00191347227933</v>
+        <v>-7.948025553782787</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.778313970030855</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.1031229810663</v>
+        <v>-14.10182684308497</v>
       </c>
       <c r="F54" t="n">
-        <v>4.892983627199191</v>
+        <v>4.84640121368833</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.300051392591117</v>
+        <v>-8.242497629298889</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.928299787381225</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.55668953736118</v>
+        <v>-13.55180610840122</v>
       </c>
       <c r="F55" t="n">
-        <v>4.97352747428149</v>
+        <v>4.926447553262643</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.615785367922182</v>
+        <v>-8.558244696932798</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.050806615954061</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.2341737491581</v>
+        <v>-13.23694931736055</v>
       </c>
       <c r="F56" t="n">
-        <v>4.871590804355811</v>
+        <v>4.824484698731281</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.646696294931498</v>
+        <v>-8.591355130819522</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.147290375549324</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.91875398909524</v>
+        <v>-12.91884563521513</v>
       </c>
       <c r="F57" t="n">
-        <v>4.800290123079771</v>
+        <v>4.755069309064449</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.997334349638606</v>
+        <v>-8.940356647671415</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.224549436763124</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.41433374520922</v>
+        <v>-12.42339361877569</v>
       </c>
       <c r="F58" t="n">
-        <v>4.692016778578696</v>
+        <v>4.649807194216971</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.435808664110853</v>
+        <v>-9.369168842646468</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.287332378964938</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.10555178268711</v>
+        <v>-12.1135511797234</v>
       </c>
       <c r="F59" t="n">
-        <v>4.682904535800855</v>
+        <v>4.636793445192295</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.798688021974975</v>
+        <v>-9.728447817229116</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.342211097025497</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.78015568785885</v>
+        <v>-11.79127105297147</v>
       </c>
       <c r="F60" t="n">
-        <v>4.58623097161755</v>
+        <v>4.5421622802523</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.863586567161411</v>
+        <v>-9.789444856168716</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.395551566142824</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.63526317230947</v>
+        <v>-11.6390075709222</v>
       </c>
       <c r="F61" t="n">
-        <v>4.435093427612664</v>
+        <v>4.398042210570579</v>
       </c>
       <c r="G61" t="n">
-        <v>-10.26569046433934</v>
+        <v>-10.19191533782622</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.450027816694729</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.5994426317345</v>
+        <v>-11.59525309482515</v>
       </c>
       <c r="F62" t="n">
-        <v>4.323520822795475</v>
+        <v>4.288669112630799</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.45274019503908</v>
+        <v>-10.3823036057506</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.511158752332167</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.36338841149818</v>
+        <v>-11.36258978102484</v>
       </c>
       <c r="F63" t="n">
-        <v>4.41223426685101</v>
+        <v>4.381676832018422</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.67104125262203</v>
+        <v>-10.60615579973843</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.57716727281939</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.32903420884149</v>
+        <v>-11.32755477862038</v>
       </c>
       <c r="F64" t="n">
-        <v>4.305453444873892</v>
+        <v>4.270785026949001</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.90524945815766</v>
+        <v>-10.83785028312846</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.649979895913476</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.4232595123934</v>
+        <v>-11.41642533031001</v>
       </c>
       <c r="F65" t="n">
-        <v>4.313361195790295</v>
+        <v>4.276728932439146</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.74003768859792</v>
+        <v>-10.66660296195868</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.725454557817356</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.28632711697178</v>
+        <v>-11.27454404441423</v>
       </c>
       <c r="F66" t="n">
-        <v>4.33805327894979</v>
+        <v>4.299116770298497</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.91730746907489</v>
+        <v>-10.84473683442321</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.802536423504311</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.57516950226594</v>
+        <v>-11.55835898541717</v>
       </c>
       <c r="F67" t="n">
-        <v>4.03677320595599</v>
+        <v>3.999669619702539</v>
       </c>
       <c r="G67" t="n">
-        <v>-11.02966561206259</v>
+        <v>-10.95335057879816</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.877308501825686</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.56148804579634</v>
+        <v>-11.54804225077789</v>
       </c>
       <c r="F68" t="n">
-        <v>4.17785586137843</v>
+        <v>4.144313381497928</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.81948178224152</v>
+        <v>-10.74424031781012</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.947861138848321</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.53315630244684</v>
+        <v>-11.5193046460403</v>
       </c>
       <c r="F69" t="n">
-        <v>4.140883198153396</v>
+        <v>4.098909275242822</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.93068780257914</v>
+        <v>-10.85244820079698</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.014401485625599</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.73209384412687</v>
+        <v>-11.70978456008457</v>
       </c>
       <c r="F70" t="n">
-        <v>3.880084525546212</v>
+        <v>3.849631829136357</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.99375342536773</v>
+        <v>-10.91601133109356</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.073365470055383</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.68905944468612</v>
+        <v>-11.67165977420946</v>
       </c>
       <c r="F71" t="n">
-        <v>3.806950921872331</v>
+        <v>3.775660318080605</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.99406764063593</v>
+        <v>-10.91328813210248</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.127771925291315</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.85560662913572</v>
+        <v>-11.83152988420978</v>
       </c>
       <c r="F72" t="n">
-        <v>3.832664204653481</v>
+        <v>3.799671601492331</v>
       </c>
       <c r="G72" t="n">
-        <v>-11.17576261947341</v>
+        <v>-11.09152674298974</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.175199508357919</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.28528291609832</v>
+        <v>-12.25345552789009</v>
       </c>
       <c r="F73" t="n">
-        <v>3.959580988401173</v>
+        <v>3.9252006011388</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.94296838264468</v>
+        <v>-10.85960969045141</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.218284945146554</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.60501004379612</v>
+        <v>-12.57158539464119</v>
       </c>
       <c r="F74" t="n">
-        <v>3.937716842655491</v>
+        <v>3.901739194446427</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.84598060319317</v>
+        <v>-10.76825160122184</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.25509122056791</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.87533991287208</v>
+        <v>-12.84372200150931</v>
       </c>
       <c r="F75" t="n">
-        <v>3.902131963531679</v>
+        <v>3.864766531221393</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.7820770730227</v>
+        <v>-10.69997524190224</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.28828910268018</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.13143844875908</v>
+        <v>-13.09903499922581</v>
       </c>
       <c r="F76" t="n">
-        <v>3.917633250096283</v>
+        <v>3.884535908512399</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.72756072398976</v>
+        <v>-10.64789406119785</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.319693809060122</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.56239778140018</v>
+        <v>-13.53030854713511</v>
       </c>
       <c r="F77" t="n">
-        <v>3.92064447974988</v>
+        <v>3.883855108764629</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.50662811353563</v>
+        <v>-10.42427752866117</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.349473184976661</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.31338536470443</v>
+        <v>-14.27985597712676</v>
       </c>
       <c r="F78" t="n">
-        <v>3.890741660059378</v>
+        <v>3.854292688948012</v>
       </c>
       <c r="G78" t="n">
-        <v>-10.19196770703758</v>
+        <v>-10.1148802279055</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.382994700831303</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.93117185889695</v>
+        <v>-14.89667364090901</v>
       </c>
       <c r="F79" t="n">
-        <v>4.063533872964478</v>
+        <v>4.026508840528077</v>
       </c>
       <c r="G79" t="n">
-        <v>-10.22317975701226</v>
+        <v>-10.14373566336867</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.419005127800931</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.32085116067809</v>
+        <v>-15.27793459196291</v>
       </c>
       <c r="F80" t="n">
-        <v>4.083381804072535</v>
+        <v>4.04428818778714</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.804461727528176</v>
+        <v>-9.729691585999079</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.461534706440868</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.8604111453913</v>
+        <v>-15.81893472998872</v>
       </c>
       <c r="F81" t="n">
-        <v>4.075788268424334</v>
+        <v>4.034050006964911</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.617045412348867</v>
+        <v>-9.539041472017864</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.508793742030503</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.68514767060299</v>
+        <v>-16.64829283810354</v>
       </c>
       <c r="F82" t="n">
-        <v>3.975344121022611</v>
+        <v>3.934967459058728</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.379066623594813</v>
+        <v>-9.303157451718485</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.563159824269529</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.6574213565381</v>
+        <v>-17.61209580410004</v>
       </c>
       <c r="F83" t="n">
-        <v>4.076835652651671</v>
+        <v>4.037820590183328</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.186426479581655</v>
+        <v>-9.110556584613853</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.622599493490195</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.59246053319133</v>
+        <v>-18.54238247482173</v>
       </c>
       <c r="F84" t="n">
-        <v>4.014935244815991</v>
+        <v>3.969531138560885</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.880695023621668</v>
+        <v>-8.808137481272823</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.684967852832847</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.63387467043359</v>
+        <v>-19.57609833799305</v>
       </c>
       <c r="F85" t="n">
-        <v>4.170707464026847</v>
+        <v>4.121323297707857</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.666557318342397</v>
+        <v>-8.596356390505061</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.748454697744045</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.8159656017102</v>
+        <v>-20.75892243822879</v>
       </c>
       <c r="F86" t="n">
-        <v>4.175420693049869</v>
+        <v>4.127214833986634</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.52450583250967</v>
+        <v>-8.453768120255823</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.806227944315804</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.02158340119338</v>
+        <v>-21.9664909908354</v>
       </c>
       <c r="F87" t="n">
-        <v>4.130199879034548</v>
+        <v>4.084848141990808</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.368785982510179</v>
+        <v>-8.298048270256333</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.854932459739221</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.44675911933232</v>
+        <v>-23.38584063420976</v>
       </c>
       <c r="F88" t="n">
-        <v>4.338367494217992</v>
+        <v>4.2924658804549</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.285152351957233</v>
+        <v>-8.217242577117199</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.884850321236891</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.95317257660416</v>
+        <v>-24.89251593753844</v>
       </c>
       <c r="F89" t="n">
-        <v>4.216949477663825</v>
+        <v>4.172042878916704</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.002934671900986</v>
+        <v>-7.9455511085457</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.890214689867059</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.61093305472636</v>
+        <v>-26.54256504928686</v>
       </c>
       <c r="F90" t="n">
-        <v>4.318702855349719</v>
+        <v>4.272748872375261</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.19501184689195</v>
+        <v>-8.129380132746377</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.85831772105013</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.2857135265428</v>
+        <v>-28.21513292192305</v>
       </c>
       <c r="F91" t="n">
-        <v>4.493589836709496</v>
+        <v>4.446562284902016</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.886164422855631</v>
+        <v>-7.831975381393727</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.783108904001099</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.27376662075606</v>
+        <v>-30.20288489317095</v>
       </c>
       <c r="F92" t="n">
-        <v>4.374371327032739</v>
+        <v>4.328783928537848</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.086136256460154</v>
+        <v>-8.027574385849114</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.655220592814147</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.12628819595177</v>
+        <v>-32.05222503877613</v>
       </c>
       <c r="F93" t="n">
-        <v>4.280866100137131</v>
+        <v>4.235907132178643</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.982536864073577</v>
+        <v>-7.934252451193291</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.469538724745508</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.12133257988251</v>
+        <v>-34.04912852971039</v>
       </c>
       <c r="F94" t="n">
-        <v>4.597411798244384</v>
+        <v>4.546535109401436</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.783193461005456</v>
+        <v>-7.74204435317391</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.2262491685218</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.19912031777297</v>
+        <v>-36.12298857674833</v>
       </c>
       <c r="F95" t="n">
-        <v>4.272487026318426</v>
+        <v>4.229099134700946</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.582553919956004</v>
+        <v>-7.554405468846292</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.92524024691904</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.45243655986244</v>
+        <v>-38.37379109669219</v>
       </c>
       <c r="F96" t="n">
-        <v>4.166596480934546</v>
+        <v>4.11687191474167</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.646863311514562</v>
+        <v>-7.610479801917405</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.578950074678107</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.38372142895398</v>
+        <v>-40.30402858155639</v>
       </c>
       <c r="F97" t="n">
-        <v>3.946148285685562</v>
+        <v>3.896318981069953</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.225291160010983</v>
+        <v>-7.201240599690732</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.191072271770189</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.94875230940211</v>
+        <v>-42.86449024831276</v>
       </c>
       <c r="F98" t="n">
-        <v>3.929049738174268</v>
+        <v>3.876811449835781</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.245086721907672</v>
+        <v>-7.22337968379609</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.788878907336733</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.07331884534604</v>
+        <v>-44.99062786059771</v>
       </c>
       <c r="F99" t="n">
-        <v>3.806374860547295</v>
+        <v>3.759661524008016</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.949527985255706</v>
+        <v>-6.934589667713297</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.377692685538276</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.31613506055646</v>
+        <v>-47.23648149006739</v>
       </c>
       <c r="F100" t="n">
-        <v>3.692498010429961</v>
+        <v>3.649424334080682</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.740457001176183</v>
+        <v>-6.730467574107946</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.999461532429209</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.70961749686945</v>
+        <v>-49.62319520581121</v>
       </c>
       <c r="F101" t="n">
-        <v>3.406614485578031</v>
+        <v>3.349977183484724</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.733190773099025</v>
+        <v>-6.729996251205644</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.646004519181417</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.11543288245934</v>
+        <v>-52.0261826539873</v>
       </c>
       <c r="F102" t="n">
-        <v>2.988315409784883</v>
+        <v>2.941471150217187</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.780296878723555</v>
+        <v>-6.77471955771298</v>
       </c>
     </row>
   </sheetData>
